--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="MorningPrizes" sheetId="1" r:id="rId3"/>
     <sheet name="AfternoonPrizes" sheetId="2" r:id="rId4"/>
+    <sheet name="Win" sheetId="3" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -58,6 +59,24 @@
   </si>
   <si>
     <t xml:space="preserve">Giải đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã Nhân Viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Họ và Tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi Chú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giải Thưởng</t>
   </si>
 </sst>
 </file>
@@ -306,4 +325,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.43" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>